--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D837F3E-92C4-4B69-AE9C-208054B7F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9132F2B-52CB-45F1-A246-034DA5E40BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="2565" windowWidth="17115" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -94,11 +94,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ragna</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ragna</t>
+    <t>Mai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +201,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K9"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -517,12 +531,12 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,7 +567,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -574,7 +588,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -595,7 +609,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -610,7 +624,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -625,7 +639,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -640,7 +654,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -654,6 +668,32 @@
         <v>19</v>
       </c>
       <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9132F2B-52CB-45F1-A246-034DA5E40BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D57E4-A79E-42BF-A0FA-FE67958365C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="2565" windowWidth="17115" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -94,19 +94,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dummy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dummy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ragna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ragna</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -679,10 +679,10 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="9"/>
     </row>
